--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3722.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3722.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.355397881951294</v>
+        <v>1.381320476531982</v>
       </c>
       <c r="B1">
-        <v>2.842377053369986</v>
+        <v>3.323147535324097</v>
       </c>
       <c r="C1">
-        <v>6.207691338862396</v>
+        <v>3.039629697799683</v>
       </c>
       <c r="D1">
-        <v>1.986950726181589</v>
+        <v>1.744714021682739</v>
       </c>
       <c r="E1">
-        <v>1.03301762400785</v>
+        <v>1.006046891212463</v>
       </c>
     </row>
   </sheetData>
